--- a/Прайс на МОДУЛЬ Слонимдрев.xlsx
+++ b/Прайс на МОДУЛЬ Слонимдрев.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15480" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15480" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <t>price_currency</t>
   </si>
   <si>
-    <t>USD</t>
+    <t>BYR</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,14 +398,12 @@
     <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -418,6 +416,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -723,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,24 +761,24 @@
       <c r="A2" s="1">
         <v>3660</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="str">
+      <c r="C2" s="25" t="str">
         <f>"public://"&amp;A2&amp;".jpg"</f>
         <v>public://3660.jpg</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>264</v>
       </c>
       <c r="E2" s="14">
         <v>0.15</v>
       </c>
       <c r="F2" s="16">
-        <f>(D2+E2*D2)</f>
-        <v>303.60000000000002</v>
-      </c>
-      <c r="G2" s="17" t="s">
+        <f>(D2+E2*D2)*10000</f>
+        <v>3036000</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -787,24 +786,24 @@
       <c r="A3" s="1">
         <v>3661</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="22" t="str">
+      <c r="C3" s="25" t="str">
         <f t="shared" ref="C3:C21" si="0">"public://"&amp;A3&amp;".jpg"</f>
         <v>public://3661.jpg</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>231</v>
       </c>
       <c r="E3" s="14">
         <v>0.15</v>
       </c>
       <c r="F3" s="16">
-        <f t="shared" ref="F3:F21" si="1">(D3+E3*D3)</f>
-        <v>265.64999999999998</v>
-      </c>
-      <c r="G3" s="17" t="s">
+        <f t="shared" ref="F3:F21" si="1">(D3+E3*D3)*10000</f>
+        <v>2656500</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -812,14 +811,14 @@
       <c r="A4" s="1">
         <v>3662</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="22" t="str">
+      <c r="C4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3662.jpg</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>150</v>
       </c>
       <c r="E4" s="14">
@@ -827,9 +826,9 @@
       </c>
       <c r="F4" s="16">
         <f t="shared" si="1"/>
-        <v>172.5</v>
-      </c>
-      <c r="G4" s="17" t="s">
+        <v>1725000</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -837,14 +836,14 @@
       <c r="A5" s="1">
         <v>3663</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="22" t="str">
+      <c r="C5" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3663.jpg</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>126</v>
       </c>
       <c r="E5" s="14">
@@ -852,9 +851,9 @@
       </c>
       <c r="F5" s="16">
         <f t="shared" si="1"/>
-        <v>144.9</v>
-      </c>
-      <c r="G5" s="17" t="s">
+        <v>1449000</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -862,14 +861,14 @@
       <c r="A6" s="1">
         <v>3664</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="22" t="str">
+      <c r="C6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3664.jpg</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>215</v>
       </c>
       <c r="E6" s="14">
@@ -877,9 +876,9 @@
       </c>
       <c r="F6" s="16">
         <f t="shared" si="1"/>
-        <v>247.25</v>
-      </c>
-      <c r="G6" s="17" t="s">
+        <v>2472500</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -887,14 +886,14 @@
       <c r="A7" s="1">
         <v>3665</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="22" t="str">
+      <c r="C7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3665.jpg</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>187</v>
       </c>
       <c r="E7" s="14">
@@ -902,9 +901,9 @@
       </c>
       <c r="F7" s="16">
         <f t="shared" si="1"/>
-        <v>215.05</v>
-      </c>
-      <c r="G7" s="17" t="s">
+        <v>2150500</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -912,14 +911,14 @@
       <c r="A8" s="1">
         <v>3666</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="str">
+      <c r="C8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3666.jpg</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>253</v>
       </c>
       <c r="E8" s="14">
@@ -927,9 +926,9 @@
       </c>
       <c r="F8" s="16">
         <f t="shared" si="1"/>
-        <v>290.95</v>
-      </c>
-      <c r="G8" s="17" t="s">
+        <v>2909500</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -937,14 +936,14 @@
       <c r="A9" s="1">
         <v>3667</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="22" t="str">
+      <c r="C9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3667.jpg</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>210</v>
       </c>
       <c r="E9" s="14">
@@ -952,9 +951,9 @@
       </c>
       <c r="F9" s="16">
         <f t="shared" si="1"/>
-        <v>241.5</v>
-      </c>
-      <c r="G9" s="17" t="s">
+        <v>2415000</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -962,14 +961,14 @@
       <c r="A10" s="1">
         <v>3668</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3668.jpg</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>132</v>
       </c>
       <c r="E10" s="14">
@@ -977,9 +976,9 @@
       </c>
       <c r="F10" s="16">
         <f t="shared" si="1"/>
-        <v>151.80000000000001</v>
-      </c>
-      <c r="G10" s="17" t="s">
+        <v>1518000</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -987,14 +986,14 @@
       <c r="A11" s="1">
         <v>3669</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3669.jpg</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>121</v>
       </c>
       <c r="E11" s="14">
@@ -1002,9 +1001,9 @@
       </c>
       <c r="F11" s="16">
         <f t="shared" si="1"/>
-        <v>139.15</v>
-      </c>
-      <c r="G11" s="17" t="s">
+        <v>1391500</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1012,14 +1011,14 @@
       <c r="A12" s="1">
         <v>3670</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3670.jpg</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>107</v>
       </c>
       <c r="E12" s="14">
@@ -1027,9 +1026,9 @@
       </c>
       <c r="F12" s="16">
         <f t="shared" si="1"/>
-        <v>123.05</v>
-      </c>
-      <c r="G12" s="17" t="s">
+        <v>1230500</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1037,14 +1036,14 @@
       <c r="A13" s="1">
         <v>3671</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3671.jpg</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>100</v>
       </c>
       <c r="E13" s="14">
@@ -1052,9 +1051,9 @@
       </c>
       <c r="F13" s="16">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="G13" s="17" t="s">
+        <v>1150000</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1062,14 +1061,14 @@
       <c r="A14" s="1">
         <v>3672</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3672.jpg</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>115</v>
       </c>
       <c r="E14" s="14">
@@ -1077,9 +1076,9 @@
       </c>
       <c r="F14" s="16">
         <f t="shared" si="1"/>
-        <v>132.25</v>
-      </c>
-      <c r="G14" s="17" t="s">
+        <v>1322500</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1087,14 +1086,14 @@
       <c r="A15" s="1">
         <v>3673</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3673.jpg</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>99</v>
       </c>
       <c r="E15" s="14">
@@ -1102,9 +1101,9 @@
       </c>
       <c r="F15" s="16">
         <f t="shared" si="1"/>
-        <v>113.85</v>
-      </c>
-      <c r="G15" s="17" t="s">
+        <v>1138500</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1112,14 +1111,14 @@
       <c r="A16" s="1">
         <v>3674</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3674.jpg</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>101</v>
       </c>
       <c r="E16" s="14">
@@ -1127,9 +1126,9 @@
       </c>
       <c r="F16" s="16">
         <f t="shared" si="1"/>
-        <v>116.15</v>
-      </c>
-      <c r="G16" s="17" t="s">
+        <v>1161500</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1137,14 +1136,14 @@
       <c r="A17" s="1">
         <v>3675</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3675.jpg</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>88</v>
       </c>
       <c r="E17" s="14">
@@ -1152,9 +1151,9 @@
       </c>
       <c r="F17" s="16">
         <f t="shared" si="1"/>
-        <v>101.2</v>
-      </c>
-      <c r="G17" s="17" t="s">
+        <v>1012000</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1162,14 +1161,14 @@
       <c r="A18" s="1">
         <v>3676</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3676.jpg</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>57</v>
       </c>
       <c r="E18" s="14">
@@ -1177,9 +1176,9 @@
       </c>
       <c r="F18" s="16">
         <f t="shared" si="1"/>
-        <v>65.55</v>
-      </c>
-      <c r="G18" s="17" t="s">
+        <v>655500</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1187,14 +1186,14 @@
       <c r="A19" s="1">
         <v>3677</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3677.jpg</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>50</v>
       </c>
       <c r="E19" s="14">
@@ -1202,9 +1201,9 @@
       </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
-        <v>57.5</v>
-      </c>
-      <c r="G19" s="17" t="s">
+        <v>575000</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1212,14 +1211,14 @@
       <c r="A20" s="1">
         <v>3678</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3678.jpg</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>50</v>
       </c>
       <c r="E20" s="14">
@@ -1227,9 +1226,9 @@
       </c>
       <c r="F20" s="16">
         <f t="shared" si="1"/>
-        <v>57.5</v>
-      </c>
-      <c r="G20" s="17" t="s">
+        <v>575000</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1237,14 +1236,14 @@
       <c r="A21" s="1">
         <v>3679</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>public://3679.jpg</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>45</v>
       </c>
       <c r="E21" s="14">
@@ -1252,9 +1251,9 @@
       </c>
       <c r="F21" s="16">
         <f t="shared" si="1"/>
-        <v>51.75</v>
-      </c>
-      <c r="G21" s="17" t="s">
+        <v>517500</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1274,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1369,7 +1368,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -1413,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -1455,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -1497,7 +1496,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -1539,7 +1538,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -1581,7 +1580,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -1623,7 +1622,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -1665,7 +1664,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -1707,7 +1706,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -1749,7 +1748,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -1791,7 +1790,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -1833,7 +1832,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1875,7 +1874,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -1917,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -1959,7 +1958,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -2001,7 +2000,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -2043,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -2085,7 +2084,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -2127,7 +2126,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -2169,7 +2168,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="8" t="s">
